--- a/miscellaneous/StructureDefinition-mii-pr-person-vitalstatus.xlsx
+++ b/miscellaneous/StructureDefinition-mii-pr-person-vitalstatus.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04</t>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1138,10 +1138,10 @@
 </t>
   </si>
   <si>
-    <t>Fall oder Kontakt</t>
-  </si>
-  <si>
-    <t>Fall oder Kontakt, bei dem der Vitalstatus festgestellt wurde.</t>
+    <t>Kontakt (Aufenthaltsbezug)</t>
+  </si>
+  <si>
+    <t>Kontakt, bei dem der Vitalstatus festgestellt wurde.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
